--- a/matric.xlsx
+++ b/matric.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zee\Desktop\Studies\V\Seminar\Seminar\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zee\Desktop\Studies\V\Seminar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2414C0F2-8D38-48DB-9635-18E8DF74DD32}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BF8E83B-2692-4F0B-B9C8-A744362BD059}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D5DC789F-A159-4DD8-BFBF-0A717B8DC389}"/>
+    <workbookView minimized="1" xWindow="-19155" yWindow="1245" windowWidth="15375" windowHeight="7875" xr2:uid="{D5DC789F-A159-4DD8-BFBF-0A717B8DC389}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,70 +31,91 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
   <si>
     <t xml:space="preserve">Methodology </t>
   </si>
   <si>
-    <t>speed</t>
-  </si>
-  <si>
-    <t>Compatible with user preference</t>
-  </si>
-  <si>
-    <t>limitation</t>
-  </si>
-  <si>
     <t>Key technologies</t>
   </si>
   <si>
     <t>Selecability</t>
   </si>
   <si>
-    <t>scalability</t>
-  </si>
-  <si>
-    <t>Exceptional handling</t>
-  </si>
-  <si>
-    <t>RESTdesc</t>
-  </si>
-  <si>
-    <t>Very fast (100s of ms: for upto 1000 services)</t>
-  </si>
-  <si>
     <t>yes</t>
   </si>
   <si>
-    <t>RESTdesc,</t>
-  </si>
-  <si>
-    <t>NO (though present  the status code )</t>
-  </si>
-  <si>
-    <t>Selectability</t>
-  </si>
-  <si>
-    <t>correctness</t>
-  </si>
-  <si>
-    <t>expressibility</t>
-  </si>
-  <si>
-    <t>upto medium sized (250 devices)</t>
-  </si>
-  <si>
-    <t>depends on service annotation</t>
-  </si>
-  <si>
     <t>good for WoT, Generally not good as compared to planning languages</t>
+  </si>
+  <si>
+    <t>EMAS</t>
+  </si>
+  <si>
+    <t>~300</t>
+  </si>
+  <si>
+    <t>NS</t>
+  </si>
+  <si>
+    <t>Good</t>
+  </si>
+  <si>
+    <t>WoTDL and AI</t>
+  </si>
+  <si>
+    <t>WoT, OWL-S</t>
+  </si>
+  <si>
+    <t>depends on computing capability. Generally upto 25 devices</t>
+  </si>
+  <si>
+    <t>SysML, NetLogo</t>
+  </si>
+  <si>
+    <t>Home automation</t>
+  </si>
+  <si>
+    <t>Health Care</t>
+  </si>
+  <si>
+    <t>RESTdesc and First order Reasoner</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>RESTdesc, ClickScript,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NO </t>
+  </si>
+  <si>
+    <t>depends on service desciption</t>
+  </si>
+  <si>
+    <t>Exception handling</t>
+  </si>
+  <si>
+    <t>Correctness</t>
+  </si>
+  <si>
+    <t>Expressibility</t>
+  </si>
+  <si>
+    <t>Scenario</t>
+  </si>
+  <si>
+    <t>Speed (ms)*</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> user preference</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -103,6 +124,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -117,7 +153,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -126,7 +162,52 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="medium">
@@ -135,17 +216,49 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
@@ -154,61 +267,85 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -524,126 +661,176 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6FD22BF-1DD0-40D5-A172-8FC736205C40}">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:S12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.28515625" customWidth="1"/>
+    <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" customWidth="1"/>
+    <col min="11" max="11" width="13.140625" customWidth="1"/>
+    <col min="12" max="12" width="12" customWidth="1"/>
+    <col min="13" max="13" width="10.5703125" customWidth="1"/>
+    <col min="14" max="14" width="13.5703125" customWidth="1"/>
+    <col min="15" max="15" width="10.5703125" customWidth="1"/>
+    <col min="16" max="16" width="11" customWidth="1"/>
+    <col min="17" max="17" width="12.140625" customWidth="1"/>
+    <col min="18" max="18" width="12.7109375" customWidth="1"/>
+    <col min="19" max="19" width="9.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="128.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-    </row>
-    <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-    </row>
-    <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3"/>
+    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
+      <c r="G5" s="5"/>
     </row>
-    <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="3"/>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
+      <c r="G6" s="5"/>
     </row>
-    <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="3"/>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
+      <c r="G7" s="5"/>
+    </row>
+    <row r="8" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:19" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="K9" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="M9" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="N9" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q9" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="R9" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="S9" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K10" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S10" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="K11" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="R11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S11" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K12" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="L12" s="17">
+        <v>80</v>
+      </c>
+      <c r="M12" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="N12" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="O12" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="P12" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q12" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="R12" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="S12" s="16" t="s">
+        <v>14</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
